--- a/PFF_HTRA1/103124_analysis_by_cell.xlsx
+++ b/PFF_HTRA1/103124_analysis_by_cell.xlsx
@@ -933,16 +933,16 @@
         <v>2192</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1383,16 +1383,16 @@
         <v>14749</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2356</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>875</v>
       </c>
       <c r="G38" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1408,16 +1408,16 @@
         <v>5031</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>782</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>2233</v>
       </c>
       <c r="G39" t="n">
-        <v>449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1814,10 +1814,10 @@
         <v>254</v>
       </c>
       <c r="F55" t="n">
-        <v>3137</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>4227</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>259</v>
       </c>
       <c r="F57" t="n">
-        <v>4075</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>3945</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         <v>283</v>
       </c>
       <c r="F59" t="n">
-        <v>4042</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1939,10 +1939,10 @@
         <v>1392</v>
       </c>
       <c r="F60" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>269</v>
       </c>
       <c r="F64" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2164,10 +2164,10 @@
         <v>353</v>
       </c>
       <c r="F69" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2214,10 +2214,10 @@
         <v>133</v>
       </c>
       <c r="F71" t="n">
-        <v>2404</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2239,10 +2239,10 @@
         <v>209</v>
       </c>
       <c r="F72" t="n">
-        <v>3827</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2264,10 +2264,10 @@
         <v>3144</v>
       </c>
       <c r="F73" t="n">
-        <v>5458</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>2719</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>3494</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2339,10 +2339,10 @@
         <v>361</v>
       </c>
       <c r="F76" t="n">
-        <v>7481</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>2431</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>3153</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>3247</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>5813</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         <v>513</v>
       </c>
       <c r="F81" t="n">
-        <v>13480</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2489,10 +2489,10 @@
         <v>162</v>
       </c>
       <c r="F82" t="n">
-        <v>8369</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>4943</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>6781</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1413</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2589,10 +2589,10 @@
         <v>2451</v>
       </c>
       <c r="F86" t="n">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         <v>1906</v>
       </c>
       <c r="F94" t="n">
-        <v>3584</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2814,10 +2814,10 @@
         <v>32</v>
       </c>
       <c r="F95" t="n">
-        <v>3680</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2864,10 +2864,10 @@
         <v>2337</v>
       </c>
       <c r="F97" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3258,16 +3258,16 @@
         <v>3237</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
         <v>382</v>
       </c>
       <c r="G113" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4164,10 +4164,10 @@
         <v>6011</v>
       </c>
       <c r="F149" t="n">
-        <v>14634</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -4189,10 +4189,10 @@
         <v>73</v>
       </c>
       <c r="F150" t="n">
-        <v>14610</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -4214,10 +4214,10 @@
         <v>277</v>
       </c>
       <c r="F151" t="n">
-        <v>7967</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>8392</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>4494</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>4939</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -4314,10 +4314,10 @@
         <v>553</v>
       </c>
       <c r="F155" t="n">
-        <v>6312</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -4339,10 +4339,10 @@
         <v>1373</v>
       </c>
       <c r="F156" t="n">
-        <v>5056</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -4364,10 +4364,10 @@
         <v>908</v>
       </c>
       <c r="F157" t="n">
-        <v>6465</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>5334</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>4805</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -4439,10 +4439,10 @@
         <v>421</v>
       </c>
       <c r="F160" t="n">
-        <v>6877</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -4464,10 +4464,10 @@
         <v>2594</v>
       </c>
       <c r="F161" t="n">
-        <v>5336</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>1365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -4489,10 +4489,10 @@
         <v>399</v>
       </c>
       <c r="F162" t="n">
-        <v>6637</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>4313</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>2657</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>13938</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>9786</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -4639,10 +4639,10 @@
         <v>1608</v>
       </c>
       <c r="F168" t="n">
-        <v>6402</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -4664,10 +4664,10 @@
         <v>2200</v>
       </c>
       <c r="F169" t="n">
-        <v>10074</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>6884</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>2846</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>6164</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -4764,10 +4764,10 @@
         <v>579</v>
       </c>
       <c r="F173" t="n">
-        <v>5865</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>2246</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>3472</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -4839,10 +4839,10 @@
         <v>1319</v>
       </c>
       <c r="F176" t="n">
-        <v>7987</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4864,10 +4864,10 @@
         <v>941</v>
       </c>
       <c r="F177" t="n">
-        <v>9529</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>4308</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>8024</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>9228</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>9319</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>5039</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -5014,10 +5014,10 @@
         <v>1691</v>
       </c>
       <c r="F183" t="n">
-        <v>3977</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -5039,10 +5039,10 @@
         <v>4479</v>
       </c>
       <c r="F184" t="n">
-        <v>9897</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>2345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -5064,10 +5064,10 @@
         <v>1017</v>
       </c>
       <c r="F185" t="n">
-        <v>6673</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>3703</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>4913</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>2120</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>5518</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>3431</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>4673</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -5239,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>7023</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>5985</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>6342</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>5208</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -5364,10 +5364,10 @@
         <v>2675</v>
       </c>
       <c r="F197" t="n">
-        <v>6684</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>1259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -5389,10 +5389,10 @@
         <v>4610</v>
       </c>
       <c r="F198" t="n">
-        <v>5179</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>1265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>2466</v>
+        <v>0</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>2491</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>3779</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>3278</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -5514,10 +5514,10 @@
         <v>396</v>
       </c>
       <c r="F203" t="n">
-        <v>3691</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>4635</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>4664</v>
+        <v>0</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>6453</v>
+        <v>0</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
@@ -5614,10 +5614,10 @@
         <v>2636</v>
       </c>
       <c r="F207" t="n">
-        <v>4542</v>
+        <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>1356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
@@ -5664,10 +5664,10 @@
         <v>61</v>
       </c>
       <c r="F209" t="n">
-        <v>4356</v>
+        <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>4848</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>6621</v>
+        <v>0</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>4474</v>
+        <v>0</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>

--- a/PFF_HTRA1/103124_analysis_by_cell.xlsx
+++ b/PFF_HTRA1/103124_analysis_by_cell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>File_Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cell_Size</t>
+          <t>Cell_Area</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -461,12 +461,27 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Average_Inclusion_Area</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>HTRA_Area</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Overlap_Area</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap_to_Inclusion_Area</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap_to_HTRA_Area</t>
         </is>
       </c>
     </row>
@@ -489,9 +504,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>4</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -514,10 +536,19 @@
         <v>2115</v>
       </c>
       <c r="F3" t="n">
+        <v>141</v>
+      </c>
+      <c r="G3" t="n">
         <v>196</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>68</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03215130023640662</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3469387755102041</v>
       </c>
     </row>
     <row r="4">
@@ -539,10 +570,19 @@
         <v>709</v>
       </c>
       <c r="F4" t="n">
+        <v>78.77777777777777</v>
+      </c>
+      <c r="G4" t="n">
         <v>270</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.07052186177715092</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="5">
@@ -564,10 +604,19 @@
         <v>2780</v>
       </c>
       <c r="F5" t="n">
+        <v>173.75</v>
+      </c>
+      <c r="G5" t="n">
         <v>486</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>97</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.03489208633093525</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1995884773662552</v>
       </c>
     </row>
     <row r="6">
@@ -589,9 +638,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>597</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -614,9 +670,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>85</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -639,9 +702,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>527</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -664,9 +734,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>229</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -689,10 +766,19 @@
         <v>19903</v>
       </c>
       <c r="F10" t="n">
+        <v>137.2620689655172</v>
+      </c>
+      <c r="G10" t="n">
         <v>5771</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>816</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.04099884439531729</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.141396638364235</v>
       </c>
     </row>
     <row r="11">
@@ -714,9 +800,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>397</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -739,10 +832,19 @@
         <v>5840</v>
       </c>
       <c r="F12" t="n">
+        <v>110.188679245283</v>
+      </c>
+      <c r="G12" t="n">
         <v>3113</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>410</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0702054794520548</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.1317057500803084</v>
       </c>
     </row>
     <row r="13">
@@ -764,9 +866,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>53</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -789,9 +898,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>332</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -814,9 +930,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>180</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -839,9 +962,18 @@
         <v>1950</v>
       </c>
       <c r="F16" t="n">
+        <v>487.5</v>
+      </c>
+      <c r="G16" t="n">
         <v>124</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -864,9 +996,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>5587</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -889,9 +1028,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>1116</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,9 +1060,18 @@
         <v>149</v>
       </c>
       <c r="F19" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="G19" t="n">
         <v>123</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -939,9 +1094,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>3</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -969,6 +1131,11 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -989,10 +1156,19 @@
         <v>239</v>
       </c>
       <c r="F22" t="n">
+        <v>79.66666666666667</v>
+      </c>
+      <c r="G22" t="n">
         <v>1369</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>36</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1506276150627615</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.02629656683710738</v>
       </c>
     </row>
     <row r="23">
@@ -1014,9 +1190,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>471</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,6 +1227,11 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1069,6 +1257,11 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1089,9 +1282,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>575</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1114,9 +1314,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>794</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,10 +1346,19 @@
         <v>963</v>
       </c>
       <c r="F28" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="G28" t="n">
         <v>1399</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>234</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2429906542056075</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1672623302358828</v>
       </c>
     </row>
     <row r="29">
@@ -1164,9 +1380,18 @@
         <v>402</v>
       </c>
       <c r="F29" t="n">
+        <v>44.66666666666666</v>
+      </c>
+      <c r="G29" t="n">
         <v>61</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1189,9 +1414,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>882</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,9 +1446,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>3</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1239,9 +1478,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>405</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1264,9 +1510,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>172</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1289,9 +1542,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>298</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1314,9 +1574,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>1259</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1339,10 +1606,19 @@
         <v>1036</v>
       </c>
       <c r="F36" t="n">
+        <v>74</v>
+      </c>
+      <c r="G36" t="n">
         <v>1289</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>82</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.07915057915057915</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.06361520558572537</v>
       </c>
     </row>
     <row r="37">
@@ -1364,11 +1640,18 @@
         <v>126</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1389,9 +1672,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>875</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1414,9 +1704,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>2233</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1439,9 +1736,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>46</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1464,9 +1768,18 @@
         <v>37</v>
       </c>
       <c r="F41" t="n">
+        <v>37</v>
+      </c>
+      <c r="G41" t="n">
         <v>299</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1489,10 +1802,19 @@
         <v>1894</v>
       </c>
       <c r="F42" t="n">
+        <v>46.19512195121951</v>
+      </c>
+      <c r="G42" t="n">
         <v>681</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>30</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.01583949313621964</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.04405286343612335</v>
       </c>
     </row>
     <row r="43">
@@ -1514,10 +1836,19 @@
         <v>6904</v>
       </c>
       <c r="F43" t="n">
+        <v>197.2571428571429</v>
+      </c>
+      <c r="G43" t="n">
         <v>1773</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>49</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.007097334878331402</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.02763677382966723</v>
       </c>
     </row>
     <row r="44">
@@ -1539,9 +1870,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>413</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,9 +1902,18 @@
         <v>76</v>
       </c>
       <c r="F45" t="n">
+        <v>76</v>
+      </c>
+      <c r="G45" t="n">
         <v>1160</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1589,9 +1936,18 @@
         <v>313</v>
       </c>
       <c r="F46" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="G46" t="n">
         <v>536</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1614,9 +1970,16 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
         <v>411</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1639,9 +2002,16 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>88</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1669,6 +2039,11 @@
       <c r="G49" t="n">
         <v>0</v>
       </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1689,10 +2064,19 @@
         <v>2932</v>
       </c>
       <c r="F50" t="n">
+        <v>195.4666666666667</v>
+      </c>
+      <c r="G50" t="n">
         <v>3550</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>1048</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.3574351978171896</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2952112676056338</v>
       </c>
     </row>
     <row r="51">
@@ -1714,9 +2098,16 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>682</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1739,9 +2130,16 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
         <v>957</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1764,9 +2162,16 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>471</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,10 +2194,19 @@
         <v>147</v>
       </c>
       <c r="F54" t="n">
+        <v>147</v>
+      </c>
+      <c r="G54" t="n">
         <v>546</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.03401360544217687</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.009157509157509158</v>
       </c>
     </row>
     <row r="55">
@@ -1814,11 +2228,18 @@
         <v>254</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>36.28571428571428</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1844,6 +2265,11 @@
       <c r="G56" t="n">
         <v>0</v>
       </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1864,11 +2290,18 @@
         <v>259</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1894,6 +2327,11 @@
       <c r="G58" t="n">
         <v>0</v>
       </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1914,11 +2352,18 @@
         <v>283</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1939,11 +2384,18 @@
         <v>1392</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>154.6666666666667</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1969,6 +2421,11 @@
       <c r="G61" t="n">
         <v>0</v>
       </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1994,6 +2451,11 @@
       <c r="G62" t="n">
         <v>0</v>
       </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2019,6 +2481,11 @@
       <c r="G63" t="n">
         <v>0</v>
       </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2039,11 +2506,18 @@
         <v>269</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2069,6 +2543,11 @@
       <c r="G65" t="n">
         <v>0</v>
       </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2094,6 +2573,11 @@
       <c r="G66" t="n">
         <v>0</v>
       </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2119,6 +2603,11 @@
       <c r="G67" t="n">
         <v>0</v>
       </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2144,6 +2633,11 @@
       <c r="G68" t="n">
         <v>0</v>
       </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2164,11 +2658,18 @@
         <v>353</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2194,6 +2695,11 @@
       <c r="G70" t="n">
         <v>0</v>
       </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2214,11 +2720,18 @@
         <v>133</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2239,11 +2752,18 @@
         <v>209</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>104.5</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2264,11 +2784,18 @@
         <v>3144</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>149.7142857142857</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2294,6 +2821,11 @@
       <c r="G74" t="n">
         <v>0</v>
       </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2319,6 +2851,11 @@
       <c r="G75" t="n">
         <v>0</v>
       </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2339,11 +2876,18 @@
         <v>361</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2369,6 +2913,11 @@
       <c r="G77" t="n">
         <v>0</v>
       </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2394,6 +2943,11 @@
       <c r="G78" t="n">
         <v>0</v>
       </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2419,6 +2973,11 @@
       <c r="G79" t="n">
         <v>0</v>
       </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2444,6 +3003,11 @@
       <c r="G80" t="n">
         <v>0</v>
       </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2464,11 +3028,18 @@
         <v>513</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>102.6</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2489,11 +3060,18 @@
         <v>162</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2519,6 +3097,11 @@
       <c r="G83" t="n">
         <v>0</v>
       </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2544,6 +3127,11 @@
       <c r="G84" t="n">
         <v>0</v>
       </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2569,6 +3157,11 @@
       <c r="G85" t="n">
         <v>0</v>
       </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2589,11 +3182,18 @@
         <v>2451</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>163.4</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2619,6 +3219,11 @@
       <c r="G87" t="n">
         <v>0</v>
       </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2633,17 +3238,24 @@
         <v>6230</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1838</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>141.3846153846154</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2669,6 +3281,11 @@
       <c r="G89" t="n">
         <v>0</v>
       </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2694,6 +3311,11 @@
       <c r="G90" t="n">
         <v>0</v>
       </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2719,6 +3341,11 @@
       <c r="G91" t="n">
         <v>0</v>
       </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2744,6 +3371,11 @@
       <c r="G92" t="n">
         <v>0</v>
       </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2769,6 +3401,11 @@
       <c r="G93" t="n">
         <v>0</v>
       </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2789,11 +3426,18 @@
         <v>1906</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>272.2857142857143</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2814,11 +3458,18 @@
         <v>32</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2844,6 +3495,11 @@
       <c r="G96" t="n">
         <v>0</v>
       </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2864,11 +3520,18 @@
         <v>2337</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>106.2272727272727</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2894,6 +3557,11 @@
       <c r="G98" t="n">
         <v>0</v>
       </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2914,10 +3582,19 @@
         <v>239</v>
       </c>
       <c r="F99" t="n">
+        <v>239</v>
+      </c>
+      <c r="G99" t="n">
         <v>166</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>72</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.301255230125523</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.4337349397590362</v>
       </c>
     </row>
     <row r="100">
@@ -2939,9 +3616,16 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
         <v>127</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2964,9 +3648,16 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>1058</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2989,9 +3680,16 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
         <v>465</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3014,9 +3712,16 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
         <v>530</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3039,10 +3744,19 @@
         <v>1156</v>
       </c>
       <c r="F104" t="n">
+        <v>128.4444444444445</v>
+      </c>
+      <c r="G104" t="n">
         <v>1895</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>594</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.513840830449827</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.3134564643799472</v>
       </c>
     </row>
     <row r="105">
@@ -3064,9 +3778,16 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
         <v>13</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,9 +3810,16 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
         <v>721</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3114,9 +3842,16 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
         <v>282</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3139,10 +3874,19 @@
         <v>363</v>
       </c>
       <c r="F108" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="G108" t="n">
         <v>310</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>2</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.005509641873278237</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.006451612903225806</v>
       </c>
     </row>
     <row r="109">
@@ -3164,9 +3908,16 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
         <v>262</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3189,9 +3940,16 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
         <v>445</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3214,10 +3972,19 @@
         <v>2215</v>
       </c>
       <c r="F111" t="n">
+        <v>147.6666666666667</v>
+      </c>
+      <c r="G111" t="n">
         <v>1281</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>431</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.1945823927765237</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.336455893832943</v>
       </c>
     </row>
     <row r="112">
@@ -3239,9 +4006,18 @@
         <v>455</v>
       </c>
       <c r="F112" t="n">
+        <v>113.75</v>
+      </c>
+      <c r="G112" t="n">
         <v>304</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3264,9 +4040,16 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
         <v>382</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3289,10 +4072,19 @@
         <v>1885</v>
       </c>
       <c r="F114" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="G114" t="n">
         <v>2320</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>656</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.3480106100795756</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.2827586206896552</v>
       </c>
     </row>
     <row r="115">
@@ -3314,9 +4106,16 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
         <v>1024</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3339,9 +4138,16 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
         <v>205</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3364,10 +4170,19 @@
         <v>2633</v>
       </c>
       <c r="F117" t="n">
+        <v>146.2777777777778</v>
+      </c>
+      <c r="G117" t="n">
         <v>2017</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>299</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.1135586783137106</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.1482399603371344</v>
       </c>
     </row>
     <row r="118">
@@ -3389,9 +4204,16 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
         <v>430</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3414,9 +4236,16 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
         <v>24</v>
       </c>
-      <c r="G119" t="n">
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3439,10 +4268,19 @@
         <v>2773</v>
       </c>
       <c r="F120" t="n">
+        <v>396.1428571428572</v>
+      </c>
+      <c r="G120" t="n">
         <v>331</v>
       </c>
-      <c r="G120" t="n">
+      <c r="H120" t="n">
         <v>287</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.1034980165885323</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.8670694864048338</v>
       </c>
     </row>
     <row r="121">
@@ -3464,9 +4302,16 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
         <v>209</v>
       </c>
-      <c r="G121" t="n">
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3489,10 +4334,19 @@
         <v>1584</v>
       </c>
       <c r="F122" t="n">
+        <v>144</v>
+      </c>
+      <c r="G122" t="n">
         <v>130</v>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
         <v>26</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.01641414141414142</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="123">
@@ -3519,6 +4373,11 @@
       <c r="G123" t="n">
         <v>0</v>
       </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3539,9 +4398,16 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
         <v>100</v>
       </c>
-      <c r="G124" t="n">
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3564,9 +4430,16 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
         <v>6</v>
       </c>
-      <c r="G125" t="n">
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3589,9 +4462,16 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
         <v>577</v>
       </c>
-      <c r="G126" t="n">
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3614,10 +4494,19 @@
         <v>1488</v>
       </c>
       <c r="F127" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="G127" t="n">
         <v>623</v>
       </c>
-      <c r="G127" t="n">
+      <c r="H127" t="n">
         <v>329</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.2211021505376344</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.5280898876404494</v>
       </c>
     </row>
     <row r="128">
@@ -3639,10 +4528,19 @@
         <v>1574</v>
       </c>
       <c r="F128" t="n">
+        <v>143.0909090909091</v>
+      </c>
+      <c r="G128" t="n">
         <v>858</v>
       </c>
-      <c r="G128" t="n">
+      <c r="H128" t="n">
         <v>16</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.01016518424396442</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.01864801864801865</v>
       </c>
     </row>
     <row r="129">
@@ -3664,9 +4562,16 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
         <v>352</v>
       </c>
-      <c r="G129" t="n">
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3689,9 +4594,16 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
         <v>19</v>
       </c>
-      <c r="G130" t="n">
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3714,9 +4626,16 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
         <v>613</v>
       </c>
-      <c r="G131" t="n">
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3744,6 +4663,11 @@
       <c r="G132" t="n">
         <v>0</v>
       </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3764,10 +4688,19 @@
         <v>1093</v>
       </c>
       <c r="F133" t="n">
+        <v>99.36363636363636</v>
+      </c>
+      <c r="G133" t="n">
         <v>869</v>
       </c>
-      <c r="G133" t="n">
+      <c r="H133" t="n">
         <v>90</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.08234217749313816</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.1035673187571922</v>
       </c>
     </row>
     <row r="134">
@@ -3794,6 +4727,11 @@
       <c r="G134" t="n">
         <v>0</v>
       </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3814,9 +4752,16 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
         <v>611</v>
       </c>
-      <c r="G135" t="n">
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3839,10 +4784,19 @@
         <v>1806</v>
       </c>
       <c r="F136" t="n">
+        <v>258</v>
+      </c>
+      <c r="G136" t="n">
         <v>89</v>
       </c>
-      <c r="G136" t="n">
+      <c r="H136" t="n">
         <v>82</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.04540420819490587</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.9213483146067416</v>
       </c>
     </row>
     <row r="137">
@@ -3869,6 +4823,11 @@
       <c r="G137" t="n">
         <v>0</v>
       </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3889,11 +4848,18 @@
         <v>3803</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>237.6875</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
       </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3914,9 +4880,16 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
         <v>413</v>
       </c>
-      <c r="G139" t="n">
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3939,9 +4912,16 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
         <v>520</v>
       </c>
-      <c r="G140" t="n">
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3964,9 +4944,16 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
         <v>499</v>
       </c>
-      <c r="G141" t="n">
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3989,9 +4976,18 @@
         <v>121</v>
       </c>
       <c r="F142" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="G142" t="n">
         <v>692</v>
       </c>
-      <c r="G142" t="n">
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4014,9 +5010,16 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
         <v>65</v>
       </c>
-      <c r="G143" t="n">
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4039,9 +5042,16 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
         <v>178</v>
       </c>
-      <c r="G144" t="n">
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4064,11 +5074,18 @@
         <v>720</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
       </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4089,9 +5106,16 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
         <v>7</v>
       </c>
-      <c r="G146" t="n">
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4119,6 +5143,11 @@
       <c r="G147" t="n">
         <v>0</v>
       </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4139,10 +5168,19 @@
         <v>2105</v>
       </c>
       <c r="F148" t="n">
+        <v>350.8333333333333</v>
+      </c>
+      <c r="G148" t="n">
         <v>270</v>
       </c>
-      <c r="G148" t="n">
+      <c r="H148" t="n">
         <v>62</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.02945368171021378</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.2296296296296296</v>
       </c>
     </row>
     <row r="149">
@@ -4164,11 +5202,18 @@
         <v>6011</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>250.4583333333333</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4189,11 +5234,18 @@
         <v>73</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4214,11 +5266,18 @@
         <v>277</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
       </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4244,6 +5303,11 @@
       <c r="G152" t="n">
         <v>0</v>
       </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4269,6 +5333,11 @@
       <c r="G153" t="n">
         <v>0</v>
       </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4294,6 +5363,11 @@
       <c r="G154" t="n">
         <v>0</v>
       </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4314,11 +5388,18 @@
         <v>553</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>276.5</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
       </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4339,11 +5420,18 @@
         <v>1373</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>137.3</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
       </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4364,11 +5452,18 @@
         <v>908</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
       </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4394,6 +5489,11 @@
       <c r="G158" t="n">
         <v>0</v>
       </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4419,6 +5519,11 @@
       <c r="G159" t="n">
         <v>0</v>
       </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4439,11 +5544,18 @@
         <v>421</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
       </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4464,11 +5576,18 @@
         <v>2594</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>518.8</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
       </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4489,11 +5608,18 @@
         <v>399</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
       </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4519,6 +5645,11 @@
       <c r="G163" t="n">
         <v>0</v>
       </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4544,6 +5675,11 @@
       <c r="G164" t="n">
         <v>0</v>
       </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4569,6 +5705,11 @@
       <c r="G165" t="n">
         <v>0</v>
       </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4594,6 +5735,11 @@
       <c r="G166" t="n">
         <v>0</v>
       </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4619,6 +5765,11 @@
       <c r="G167" t="n">
         <v>0</v>
       </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4639,11 +5790,18 @@
         <v>1608</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>123.6923076923077</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
       </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4664,11 +5822,18 @@
         <v>2200</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>129.4117647058823</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
       </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4694,6 +5859,11 @@
       <c r="G170" t="n">
         <v>0</v>
       </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4719,6 +5889,11 @@
       <c r="G171" t="n">
         <v>0</v>
       </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4744,6 +5919,11 @@
       <c r="G172" t="n">
         <v>0</v>
       </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4764,11 +5944,18 @@
         <v>579</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
       </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4794,6 +5981,11 @@
       <c r="G174" t="n">
         <v>0</v>
       </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4819,6 +6011,11 @@
       <c r="G175" t="n">
         <v>0</v>
       </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4839,11 +6036,18 @@
         <v>1319</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>1319</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
       </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4864,11 +6068,18 @@
         <v>941</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>470.5</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
       </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4894,6 +6105,11 @@
       <c r="G178" t="n">
         <v>0</v>
       </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4919,6 +6135,11 @@
       <c r="G179" t="n">
         <v>0</v>
       </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4944,6 +6165,11 @@
       <c r="G180" t="n">
         <v>0</v>
       </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4969,6 +6195,11 @@
       <c r="G181" t="n">
         <v>0</v>
       </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4994,6 +6225,11 @@
       <c r="G182" t="n">
         <v>0</v>
       </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5014,11 +6250,18 @@
         <v>1691</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>169.1</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
       </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5039,11 +6282,18 @@
         <v>4479</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>213.2857142857143</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
       </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5064,11 +6314,18 @@
         <v>1017</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>508.5</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
       </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5094,6 +6351,11 @@
       <c r="G186" t="n">
         <v>0</v>
       </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5119,6 +6381,11 @@
       <c r="G187" t="n">
         <v>0</v>
       </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5144,6 +6411,11 @@
       <c r="G188" t="n">
         <v>0</v>
       </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5169,6 +6441,11 @@
       <c r="G189" t="n">
         <v>0</v>
       </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5194,6 +6471,11 @@
       <c r="G190" t="n">
         <v>0</v>
       </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5219,6 +6501,11 @@
       <c r="G191" t="n">
         <v>0</v>
       </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5244,6 +6531,11 @@
       <c r="G192" t="n">
         <v>0</v>
       </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5269,6 +6561,11 @@
       <c r="G193" t="n">
         <v>0</v>
       </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5294,6 +6591,11 @@
       <c r="G194" t="n">
         <v>0</v>
       </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5319,6 +6621,11 @@
       <c r="G195" t="n">
         <v>0</v>
       </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5344,6 +6651,11 @@
       <c r="G196" t="n">
         <v>0</v>
       </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5364,11 +6676,18 @@
         <v>2675</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>133.75</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
       </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5389,11 +6708,18 @@
         <v>4610</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>271.1764705882353</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
       </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5419,6 +6745,11 @@
       <c r="G199" t="n">
         <v>0</v>
       </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5444,6 +6775,11 @@
       <c r="G200" t="n">
         <v>0</v>
       </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5469,6 +6805,11 @@
       <c r="G201" t="n">
         <v>0</v>
       </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5494,6 +6835,11 @@
       <c r="G202" t="n">
         <v>0</v>
       </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5514,11 +6860,18 @@
         <v>396</v>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
       </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5544,6 +6897,11 @@
       <c r="G204" t="n">
         <v>0</v>
       </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5569,6 +6927,11 @@
       <c r="G205" t="n">
         <v>0</v>
       </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5594,6 +6957,11 @@
       <c r="G206" t="n">
         <v>0</v>
       </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5614,11 +6982,18 @@
         <v>2636</v>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>376.5714285714286</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
       </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5644,6 +7019,11 @@
       <c r="G208" t="n">
         <v>0</v>
       </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5664,11 +7044,18 @@
         <v>61</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
       </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5694,6 +7081,11 @@
       <c r="G210" t="n">
         <v>0</v>
       </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5719,6 +7111,11 @@
       <c r="G211" t="n">
         <v>0</v>
       </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5744,6 +7141,11 @@
       <c r="G212" t="n">
         <v>0</v>
       </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5769,6 +7171,11 @@
       <c r="G213" t="n">
         <v>0</v>
       </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
